--- a/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
+++ b/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
@@ -1004,9 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>

--- a/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
+++ b/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
@@ -994,7 +994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
+++ b/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
@@ -211,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +389,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -636,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,7 +1001,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1002,9 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -1082,6 +1091,9 @@
         <v>0.995</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
+++ b/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
@@ -211,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +389,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -642,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,7 +647,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1001,7 +994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1009,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -1091,9 +1084,6 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
+++ b/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
@@ -211,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +389,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -636,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,7 +1001,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1002,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -1084,6 +1091,9 @@
         <v>0.995</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
+++ b/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
@@ -211,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +389,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -642,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,7 +647,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1001,7 +994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1009,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -1091,9 +1084,6 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
+++ b/PDFから読み込んだ値をExcelへ書き込む/目標達成率.xlsx
@@ -1004,9 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
